--- a/result.xlsx
+++ b/result.xlsx
@@ -483,10 +483,8 @@
       <c r="A2" t="n">
         <v>5</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
+      <c r="B2" t="b">
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>711227</v>
@@ -8732,10 +8730,8 @@
       <c r="B2" t="n">
         <v>710846</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
+      <c r="C2" t="b">
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -8752,10 +8748,8 @@
       <c r="B3" t="n">
         <v>710882</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
+      <c r="C3" t="b">
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -8772,10 +8766,8 @@
       <c r="B4" t="n">
         <v>711029</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
+      <c r="C4" t="b">
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -8792,10 +8784,8 @@
       <c r="B5" t="n">
         <v>711125</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
+      <c r="C5" t="b">
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -8812,10 +8802,8 @@
       <c r="B6" t="n">
         <v>711190</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
+      <c r="C6" t="b">
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -9227,7 +9215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9242,1670 +9230,1732 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>LiningOffset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PanelOperation</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PanelPosition</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>IsExternal</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ThermalTransmittance</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>76119</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>76119</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>my door</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>76274</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>76274</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>0813 x 2134mm</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>76314</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>76314</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>0813 x 2134mm</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>76424</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>76424</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>0813 x 2134mm</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>76658</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>76658</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>my door 2</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>3.128722913</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>216289</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>216289</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>216412</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>216412</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>0762 x 2032mm</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>265930</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>265930</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>0762 x 2032mm</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>266247</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>266247</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>showers</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>3.128722913</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>266294</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>266294</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>showers</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>3.128722913</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>266329</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>266329</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>showers</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>3.128722913</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>266364</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>266364</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>showers</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>3.128722913</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>266399</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>266399</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>showers</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>3.128722913</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>270916</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>270916</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>0915 x 2134mm</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>271039</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>271039</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>0915 x 2134mm</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>271085</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>271085</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>0915 x 2134mm</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>547233</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>547233</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>0813 x 2134mm</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>548668</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>548668</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>0813 x 2134mm</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>548855</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>548855</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>614477</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>614477</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>0813 x 2134mm</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>614511</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>614511</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>0813 x 2134mm</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>614544</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>614544</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>614852</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>614852</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>0813 x 2134mm</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>614886</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>614886</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>0813 x 2134mm</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>614919</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>614919</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>615101</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>615101</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>showers</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>3.128722913</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>618435</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>618435</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>0915 x 2134mm</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>618672</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>618672</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>showers</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>3.128722913</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>619141</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>619141</v>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>0915 x 2134mm</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>619175</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>619175</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>0915 x 2134mm</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>619209</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>619209</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>0915 x 2134mm</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>3.7021</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>619729</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>619729</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>68" x 80"</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>3.128722913</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>624925</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>624925</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>68" x 80"</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>3.128722913</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>636754</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>636754</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>636942</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>636942</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>637091</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>637091</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>637125</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>637125</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>637159</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>637159</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>637193</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>637193</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>657043</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>657043</v>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>657077</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>657077</v>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>657111</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>657111</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>657145</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>657145</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>657179</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>657179</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>657213</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>657213</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>657639</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>657639</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>657673</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>657673</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>657707</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>657707</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>657741</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>657741</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>657775</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>657775</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>657809</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>SWINGING</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>657809</v>
-      </c>
-      <c r="D52" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>24" x 80"</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>659753</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>659753</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>elevator door</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>3.128722913</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>659800</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>659800</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>elevator door</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>3.128722913</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>659835</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>NOTDEFINED</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>659835</v>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>elevator door</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>3.128722913</v>
       </c>
     </row>
